--- a/Nonogram.xlsx
+++ b/Nonogram.xlsx
@@ -12,90 +12,414 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="136">
   <si>
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">4 </t>
+    <t xml:space="preserve">15 </t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t xml:space="preserve">4, 2 </t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t xml:space="preserve">4, 1 </t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
-    <t xml:space="preserve">5, 2 </t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
-    <t xml:space="preserve">2, 1 </t>
+    <t xml:space="preserve">35 </t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t xml:space="preserve">5, 1 </t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
-    <t xml:space="preserve">1, 2, 1 </t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
-    <t xml:space="preserve">1, 3 </t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
-    <t xml:space="preserve">3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2, 2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3, 1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3, 3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7, 1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2, 2, 2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, 2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6, 1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, 1 </t>
-  </si>
-  <si>
     <t>10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15, 35 </t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35, 20 </t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30, 5, 5 </t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35, 5, 5 </t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45, 5, 5 </t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45, 15, 5 </t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15, 25, 5, 5 </t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25, 5, 5 </t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40, 15, 5 </t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40, 5, 5 </t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50, 5, 5 </t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5, 20, 5, 5 </t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30, 20 </t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10, 35 </t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 </t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15, 5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21, 15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5, 21, 15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10, 16, 15, 5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">36, 30 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">71, 5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5, 61, 14 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30, 59 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24, 25, 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14, 5, 10, 5, 15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10, 15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10, 10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15, 41, 15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15, 5, 5, 15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5, 5, 5, 5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5, 5 </t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41 </t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
   </si>
 </sst>
 </file>
@@ -205,33 +529,120 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyBorder="true" applyFill="true">
       <alignment textRotation="45"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyBorder="true" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:CR102"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="3.26953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="6.80078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="3.80078125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="5.19921875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="5.19921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.19921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.19921875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="5.19921875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="6.80078125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="5.19921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="4.3828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="4.6015625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="4.6015625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.6015625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.6015625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.6015625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="4.6015625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="4.6015625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="4.6015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="4.6015625" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="6.80078125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="6.80078125" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="6.80078125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="6.80078125" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="6.80078125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="6.80078125" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" width="6.80078125" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" width="6.80078125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="6.80078125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="6.80078125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="7.6015625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="7.6015625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="7.6015625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="7.6015625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="7.6015625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="7.6015625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="7.6015625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="7.6015625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="7.6015625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="7.6015625" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="7.6015625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="7.6015625" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="7.6015625" customWidth="true" bestFit="true"/>
+    <col min="35" max="35" width="7.6015625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="7.6015625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="7.6015625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="8.3984375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="8.3984375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="8.3984375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="8.3984375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="8.3984375" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="9.80078125" customWidth="true" bestFit="true"/>
+    <col min="44" max="44" width="9.80078125" customWidth="true" bestFit="true"/>
+    <col min="45" max="45" width="9.80078125" customWidth="true" bestFit="true"/>
+    <col min="46" max="46" width="9.80078125" customWidth="true" bestFit="true"/>
+    <col min="47" max="47" width="9.80078125" customWidth="true" bestFit="true"/>
+    <col min="48" max="48" width="7.6015625" customWidth="true" bestFit="true"/>
+    <col min="49" max="49" width="7.6015625" customWidth="true" bestFit="true"/>
+    <col min="50" max="50" width="7.6015625" customWidth="true" bestFit="true"/>
+    <col min="51" max="51" width="7.6015625" customWidth="true" bestFit="true"/>
+    <col min="52" max="52" width="7.6015625" customWidth="true" bestFit="true"/>
+    <col min="53" max="53" width="8.3984375" customWidth="true" bestFit="true"/>
+    <col min="54" max="54" width="8.3984375" customWidth="true" bestFit="true"/>
+    <col min="55" max="55" width="8.3984375" customWidth="true" bestFit="true"/>
+    <col min="56" max="56" width="8.3984375" customWidth="true" bestFit="true"/>
+    <col min="57" max="57" width="8.3984375" customWidth="true" bestFit="true"/>
+    <col min="58" max="58" width="7.6015625" customWidth="true" bestFit="true"/>
+    <col min="59" max="59" width="7.6015625" customWidth="true" bestFit="true"/>
+    <col min="60" max="60" width="7.6015625" customWidth="true" bestFit="true"/>
+    <col min="61" max="61" width="7.6015625" customWidth="true" bestFit="true"/>
+    <col min="62" max="62" width="7.6015625" customWidth="true" bestFit="true"/>
+    <col min="63" max="63" width="7.6015625" customWidth="true" bestFit="true"/>
+    <col min="64" max="64" width="7.6015625" customWidth="true" bestFit="true"/>
+    <col min="65" max="65" width="7.6015625" customWidth="true" bestFit="true"/>
+    <col min="66" max="66" width="7.6015625" customWidth="true" bestFit="true"/>
+    <col min="67" max="67" width="7.6015625" customWidth="true" bestFit="true"/>
+    <col min="68" max="68" width="9.19921875" customWidth="true" bestFit="true"/>
+    <col min="69" max="69" width="9.19921875" customWidth="true" bestFit="true"/>
+    <col min="70" max="70" width="9.19921875" customWidth="true" bestFit="true"/>
+    <col min="71" max="71" width="9.19921875" customWidth="true" bestFit="true"/>
+    <col min="72" max="72" width="9.19921875" customWidth="true" bestFit="true"/>
+    <col min="73" max="73" width="6.80078125" customWidth="true" bestFit="true"/>
+    <col min="74" max="74" width="6.80078125" customWidth="true" bestFit="true"/>
+    <col min="75" max="75" width="6.80078125" customWidth="true" bestFit="true"/>
+    <col min="76" max="76" width="6.80078125" customWidth="true" bestFit="true"/>
+    <col min="77" max="77" width="6.80078125" customWidth="true" bestFit="true"/>
+    <col min="78" max="78" width="6.80078125" customWidth="true" bestFit="true"/>
+    <col min="79" max="79" width="6.80078125" customWidth="true" bestFit="true"/>
+    <col min="80" max="80" width="6.80078125" customWidth="true" bestFit="true"/>
+    <col min="81" max="81" width="6.80078125" customWidth="true" bestFit="true"/>
+    <col min="82" max="82" width="6.80078125" customWidth="true" bestFit="true"/>
+    <col min="83" max="83" width="4.6015625" customWidth="true" bestFit="true"/>
+    <col min="84" max="84" width="4.6015625" customWidth="true" bestFit="true"/>
+    <col min="85" max="85" width="4.6015625" customWidth="true" bestFit="true"/>
+    <col min="86" max="86" width="4.6015625" customWidth="true" bestFit="true"/>
+    <col min="87" max="87" width="4.6015625" customWidth="true" bestFit="true"/>
+    <col min="88" max="88" width="4.6015625" customWidth="true" bestFit="true"/>
+    <col min="89" max="89" width="4.6015625" customWidth="true" bestFit="true"/>
+    <col min="90" max="90" width="4.6015625" customWidth="true" bestFit="true"/>
+    <col min="91" max="91" width="4.6015625" customWidth="true" bestFit="true"/>
+    <col min="92" max="92" width="4.6015625" customWidth="true" bestFit="true"/>
+    <col min="93" max="93" width="4.6015625" customWidth="true" bestFit="true"/>
+    <col min="94" max="94" width="4.6015625" customWidth="true" bestFit="true"/>
+    <col min="95" max="95" width="4.6015625" customWidth="true" bestFit="true"/>
+    <col min="96" max="96" width="4.6015625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -242,25 +653,280 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
       <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
         <v>16</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>103</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>105</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>106</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>107</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>109</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="2">
@@ -268,108 +934,1083 @@
         <v>1</v>
       </c>
       <c r="D2" t="s" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H2" t="s" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I2" t="s" s="1">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J2" t="s" s="1">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="K2" t="s" s="1">
-        <v>17</v>
+        <v>6</v>
+      </c>
+      <c r="L2" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="N2" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="O2" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="P2" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q2" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="R2" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="S2" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="T2" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="U2" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="V2" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="W2" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="X2" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="Y2" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="Z2" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="AA2" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="AB2" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="AC2" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="AD2" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="AE2" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="AF2" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="AG2" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="AH2" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="AI2" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="AJ2" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="AK2" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="AL2" t="s" s="1">
+        <v>43</v>
+      </c>
+      <c r="AM2" t="s" s="1">
+        <v>43</v>
+      </c>
+      <c r="AN2" t="s" s="1">
+        <v>43</v>
+      </c>
+      <c r="AO2" t="s" s="1">
+        <v>43</v>
+      </c>
+      <c r="AP2" t="s" s="1">
+        <v>43</v>
+      </c>
+      <c r="AQ2" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="AR2" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="AS2" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="AT2" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="AU2" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="AV2" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="AW2" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="AX2" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="AY2" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="AZ2" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="BA2" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="BB2" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="BC2" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="BD2" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="BE2" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="BF2" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="BG2" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="BH2" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="BI2" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="BJ2" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="BK2" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="BL2" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="BM2" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="BN2" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="BO2" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="BP2" t="s" s="1">
+        <v>79</v>
+      </c>
+      <c r="BQ2" t="s" s="1">
+        <v>79</v>
+      </c>
+      <c r="BR2" t="s" s="1">
+        <v>79</v>
+      </c>
+      <c r="BS2" t="s" s="1">
+        <v>79</v>
+      </c>
+      <c r="BT2" t="s" s="1">
+        <v>79</v>
+      </c>
+      <c r="BU2" t="s" s="1">
+        <v>85</v>
+      </c>
+      <c r="BV2" t="s" s="1">
+        <v>85</v>
+      </c>
+      <c r="BW2" t="s" s="1">
+        <v>85</v>
+      </c>
+      <c r="BX2" t="s" s="1">
+        <v>85</v>
+      </c>
+      <c r="BY2" t="s" s="1">
+        <v>85</v>
+      </c>
+      <c r="BZ2" t="s" s="1">
+        <v>91</v>
+      </c>
+      <c r="CA2" t="s" s="1">
+        <v>91</v>
+      </c>
+      <c r="CB2" t="s" s="1">
+        <v>91</v>
+      </c>
+      <c r="CC2" t="s" s="1">
+        <v>91</v>
+      </c>
+      <c r="CD2" t="s" s="1">
+        <v>91</v>
+      </c>
+      <c r="CE2" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="CF2" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="CG2" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="CH2" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="CI2" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="CJ2" t="s" s="1">
+        <v>102</v>
+      </c>
+      <c r="CK2" t="s" s="1">
+        <v>102</v>
+      </c>
+      <c r="CL2" t="s" s="1">
+        <v>102</v>
+      </c>
+      <c r="CM2" t="s" s="1">
+        <v>102</v>
+      </c>
+      <c r="CN2" t="s" s="1">
+        <v>102</v>
+      </c>
+      <c r="CO2" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP2" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="CQ2" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="CR2" t="s" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s" s="1">
-        <v>18</v>
+      <c r="B3" t="s" s="2">
+        <v>111</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s" s="1">
-        <v>19</v>
+      <c r="B4" t="s" s="2">
+        <v>111</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s" s="1">
-        <v>20</v>
+        <v>3</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>111</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s" s="1">
-        <v>21</v>
+        <v>4</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>111</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s" s="1">
-        <v>22</v>
+        <v>5</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>111</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s" s="1">
-        <v>23</v>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s" s="1">
-        <v>24</v>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s" s="1">
-        <v>25</v>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>112</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s" s="1">
-        <v>26</v>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>112</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="B12" t="s" s="1">
-        <v>18</v>
+      <c r="B25" t="s" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>75</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>76</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>78</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>80</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>81</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>82</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>83</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>84</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>86</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>87</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>88</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>89</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>90</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>92</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>93</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>94</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>95</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>96</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>97</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>98</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>99</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>100</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>101</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>103</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>104</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>105</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>106</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>107</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>108</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>109</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>110</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>129</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>130</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>132</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>133</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>134</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>135</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
